--- a/data/trans_dic/P04D$individual-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P04D$individual-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>26,09; 35,13</t>
+          <t>26,92; 35,16</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>24,11; 33,86</t>
+          <t>23,71; 32,96</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>11,2; 25,35</t>
+          <t>10,66; 25,05</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>23,7; 32,19</t>
+          <t>23,91; 32,52</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>27,88; 36,88</t>
+          <t>27,84; 36,98</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>12,9; 25,14</t>
+          <t>12,54; 24,82</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>26,32; 32,61</t>
+          <t>26,33; 32,61</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>26,96; 33,75</t>
+          <t>27,29; 33,74</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>13,28; 22,7</t>
+          <t>13,32; 23,05</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>25,12; 32,37</t>
+          <t>25,18; 32,37</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>25,83; 33,22</t>
+          <t>25,86; 33,2</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>13,52; 23,18</t>
+          <t>13,21; 22,67</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>26,75; 34,21</t>
+          <t>26,91; 34,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>27,9; 35,74</t>
+          <t>27,7; 35,13</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>10,39; 20,67</t>
+          <t>10,13; 20,42</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>26,88; 32,11</t>
+          <t>26,83; 31,91</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>27,79; 33,29</t>
+          <t>28,07; 33,38</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>13,06; 20,72</t>
+          <t>13,0; 20,35</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>27,43; 35,07</t>
+          <t>27,62; 34,81</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>26,86; 33,93</t>
+          <t>26,97; 34,42</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>13,72; 20,77</t>
+          <t>13,83; 21,26</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>29,02; 36,14</t>
+          <t>28,95; 36,46</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>30,78; 38,09</t>
+          <t>30,81; 38,41</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>12,91; 20,85</t>
+          <t>13,54; 20,66</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>29,29; 34,45</t>
+          <t>29,16; 34,18</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>29,72; 34,75</t>
+          <t>29,69; 34,79</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>14,9; 19,97</t>
+          <t>14,51; 19,62</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>27,39; 35,49</t>
+          <t>27,08; 35,21</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>25,42; 32,69</t>
+          <t>25,08; 32,75</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>20,2; 74,02</t>
+          <t>20,33; 73,81</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>24,86; 32,55</t>
+          <t>24,69; 32,81</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>26,74; 34,04</t>
+          <t>26,63; 34,14</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>15,07; 20,98</t>
+          <t>15,44; 20,93</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>27,16; 32,7</t>
+          <t>27,14; 33,02</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>27,3; 32,14</t>
+          <t>26,98; 32,27</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>19,12; 60,6</t>
+          <t>19,21; 61,37</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>26,17; 35,78</t>
+          <t>26,51; 35,63</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>25,62; 34,7</t>
+          <t>25,5; 34,71</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>15,4; 21,47</t>
+          <t>15,24; 21,41</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>24,08; 32,79</t>
+          <t>24,13; 32,6</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>27,63; 36,97</t>
+          <t>27,72; 37,06</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>12,6; 17,04</t>
+          <t>12,49; 16,96</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>26,2; 32,76</t>
+          <t>26,63; 33,06</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>28,11; 34,07</t>
+          <t>28,0; 34,25</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>14,76; 18,59</t>
+          <t>14,42; 18,49</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1236,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>23,29; 34,57</t>
+          <t>22,91; 34,44</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>21,83; 31,61</t>
+          <t>21,44; 31,38</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>15,25; 22,01</t>
+          <t>15,16; 21,9</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>23,72; 33,84</t>
+          <t>23,56; 33,9</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>23,05; 32,54</t>
+          <t>22,87; 32,56</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>4,05; 16,5</t>
+          <t>4,35; 16,77</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>25,09; 32,3</t>
+          <t>25,04; 32,35</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>23,74; 30,71</t>
+          <t>23,88; 30,86</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>7,46; 17,61</t>
+          <t>6,06; 17,66</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>18,27; 30,11</t>
+          <t>18,41; 30,1</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>16,55; 25,76</t>
+          <t>16,25; 25,87</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>11,11; 17,87</t>
+          <t>11,2; 17,54</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>13,22; 21,62</t>
+          <t>13,19; 21,5</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>21,08; 31,17</t>
+          <t>20,73; 31,26</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>10,11; 14,52</t>
+          <t>10,17; 14,68</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>16,44; 23,08</t>
+          <t>16,38; 23,27</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>20,59; 27,9</t>
+          <t>20,05; 27,65</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>11,32; 15,13</t>
+          <t>11,26; 14,92</t>
         </is>
       </c>
     </row>
@@ -1455,47 +1456,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>28,16; 31,38</t>
+          <t>28,3; 31,41</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>26,99; 30,25</t>
+          <t>26,91; 30,21</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>17,77; 40,99</t>
+          <t>17,81; 42,85</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>26,77; 29,71</t>
+          <t>26,82; 29,97</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>29,4; 32,68</t>
+          <t>29,27; 32,61</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>12,85; 16,89</t>
+          <t>12,5; 16,91</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>27,96; 30,2</t>
+          <t>27,9; 30,17</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>28,61; 30,87</t>
+          <t>28,57; 30,91</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>16,27; 29,42</t>
+          <t>16,37; 30,53</t>
         </is>
       </c>
     </row>
@@ -1523,4 +1524,1455 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que, al menos, tiene calefacción individual en su vivienda</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>241</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>139879</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>120003</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>67913</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>120098</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>127814</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>56759</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>259977</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>247817</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>124673</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>121752; 159010</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>99442; 138272</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>42627; 100160</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>102417; 139291</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>110181; 146333</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>39267; 77748</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>231875; 287148</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>222474; 275043</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>94978; 164341</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>194</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>366</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>348</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>196524</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>173270</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>75742</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>184507</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>177303</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>82126</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>381031</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>350572</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>157868</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>173034; 222391</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>152706; 196059</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>55962; 96027</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>164220; 207509</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>156119; 197986</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>51719; 104273</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>348074; 413933</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>323896; 385233</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>121426; 190067</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>424</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>418</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>241</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>210748</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>203274</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>92221</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>230830</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>226874</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>103672</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>441578</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>430148</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>195893</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>188064; 237024</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>180462; 230295</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>73716; 113297</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>205483; 258782</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>203781; 254039</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>80041; 122127</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>405578; 475294</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>394958; 462867</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>163097; 220612</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>215</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>322</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>189796</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>187191</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>382598</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>176182</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>196442</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>130006</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>365978</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>383634</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>512604</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>165552; 215228</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>162002; 211588</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>180475; 655235</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>151862; 201808</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>172828; 221618</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>109758; 148776</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>332886; 404891</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>349435; 417977</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>307171; 981164</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>238</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>260</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>262</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>132648</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>143723</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>103379</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>126286</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>159234</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>79714</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>258934</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>302957</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>183093</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>113863; 153005</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>121885; 165870</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>85246; 119757</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>108037; 145985</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>137717; 184125</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>68194; 92630</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>233611; 290049</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>272905; 333854</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>159352; 204355</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>236</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>88108</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>89043</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>67650</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>101523</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>104479</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>63085</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>189631</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>193522</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>130734</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>70985; 106698</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>71687; 104906</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>55722; 80469</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>83404; 119996</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>86391; 123006</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>26393; 101803</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>166234; 214736</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>170059; 219759</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>59109; 172093</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>58682</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>52843</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>40204</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>66461</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>102813</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>52577</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>125144</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>155656</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>92781</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>45831; 74915</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>41768; 66479</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>31662; 49593</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>51288; 83631</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>82936; 125073</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>43276; 62429</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>104454; 148441</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>131768; 181675</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>79701; 105684</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>951</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>916</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>573</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>942</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>1016</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>862</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>1893</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>1932</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>1435</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>1016385</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>969347</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>829707</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>1005887</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>1094959</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>567939</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>2022272</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>2064306</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>1397646</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>967788; 1074169</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>913455; 1025358</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>615159; 1480020</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>953284; 1065229</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>1037651; 1155967</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>462986; 626384</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>1946023; 2104058</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>1982149; 2144756</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>1172093; 2185682</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>